--- a/Sicherung/NN300P2/Test NN DS300.xlsx
+++ b/Sicherung/NN300P2/Test NN DS300.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lena\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lena\Documents\BAP\Sicherung\NN300P2\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -87,27 +87,35 @@
     <t>dataset_5x4_3G_p2_300.txt</t>
   </si>
   <si>
-    <t>NNPlayer1_HL30_300.nnet</t>
-  </si>
-  <si>
-    <t>NNPlayer1_HL60_300.nnet</t>
-  </si>
-  <si>
-    <t>NNPlayer1_HL120_300.nnet</t>
-  </si>
-  <si>
-    <t>NNPlayer1_HL180_300.nnet</t>
-  </si>
-  <si>
-    <t>NNPlayer1_HL240_300.nnet</t>
+    <t>NNPlayer2_HL30_300.nnet</t>
+  </si>
+  <si>
+    <t>NNPlayer2_HL60_300.nnet</t>
+  </si>
+  <si>
+    <t>NNPlayer2_HL120_300.nnet</t>
+  </si>
+  <si>
+    <t>NNPlayer2_HL180_300.nnet</t>
+  </si>
+  <si>
+    <t>NNPlayer2_HL240_300.nnet</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -180,7 +188,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -195,8 +203,8 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -210,11 +218,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -228,6 +236,13 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -544,8 +559,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:I34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B7" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="G30" sqref="G30"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -653,27 +668,27 @@
       <c r="A10" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="14">
+      <c r="B10" s="13">
         <v>30</v>
       </c>
       <c r="C10" s="2">
         <v>4705</v>
       </c>
-      <c r="D10" s="14">
+      <c r="D10" s="13">
         <f>AVERAGE(C10:C14)</f>
         <v>4667.2</v>
       </c>
       <c r="E10" s="2">
         <v>5</v>
       </c>
-      <c r="F10" s="14">
+      <c r="F10" s="13">
         <f>AVERAGE(E10:E14)</f>
         <v>5.6</v>
       </c>
       <c r="G10" s="2">
         <v>5290</v>
       </c>
-      <c r="H10" s="14">
+      <c r="H10" s="13">
         <f>AVERAGE(G10:G14)</f>
         <v>5327.2</v>
       </c>
@@ -684,19 +699,19 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A11" s="15"/>
-      <c r="B11" s="14"/>
+      <c r="B11" s="13"/>
       <c r="C11" s="2">
         <v>4613</v>
       </c>
-      <c r="D11" s="14"/>
+      <c r="D11" s="13"/>
       <c r="E11" s="2">
         <v>7</v>
       </c>
-      <c r="F11" s="14"/>
+      <c r="F11" s="13"/>
       <c r="G11" s="2">
         <v>5380</v>
       </c>
-      <c r="H11" s="14"/>
+      <c r="H11" s="13"/>
       <c r="I11">
         <f t="shared" ref="I11:I34" si="0">SUM(C11,E11,G11)</f>
         <v>10000</v>
@@ -704,19 +719,19 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A12" s="15"/>
-      <c r="B12" s="14"/>
+      <c r="B12" s="13"/>
       <c r="C12" s="2">
         <v>4660</v>
       </c>
-      <c r="D12" s="14"/>
+      <c r="D12" s="13"/>
       <c r="E12" s="2">
         <v>4</v>
       </c>
-      <c r="F12" s="14"/>
+      <c r="F12" s="13"/>
       <c r="G12" s="2">
         <v>5336</v>
       </c>
-      <c r="H12" s="14"/>
+      <c r="H12" s="13"/>
       <c r="I12">
         <f t="shared" si="0"/>
         <v>10000</v>
@@ -724,19 +739,19 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A13" s="15"/>
-      <c r="B13" s="14"/>
+      <c r="B13" s="13"/>
       <c r="C13" s="2">
         <v>4705</v>
       </c>
-      <c r="D13" s="14"/>
+      <c r="D13" s="13"/>
       <c r="E13" s="2">
         <v>8</v>
       </c>
-      <c r="F13" s="14"/>
+      <c r="F13" s="13"/>
       <c r="G13" s="2">
         <v>5287</v>
       </c>
-      <c r="H13" s="14"/>
+      <c r="H13" s="13"/>
       <c r="I13">
         <f t="shared" si="0"/>
         <v>10000</v>
@@ -744,19 +759,19 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A14" s="15"/>
-      <c r="B14" s="14"/>
+      <c r="B14" s="13"/>
       <c r="C14" s="2">
         <v>4653</v>
       </c>
-      <c r="D14" s="14"/>
+      <c r="D14" s="13"/>
       <c r="E14" s="2">
         <v>4</v>
       </c>
-      <c r="F14" s="14"/>
+      <c r="F14" s="13"/>
       <c r="G14" s="2">
         <v>5343</v>
       </c>
-      <c r="H14" s="14"/>
+      <c r="H14" s="13"/>
       <c r="I14">
         <f t="shared" si="0"/>
         <v>10000</v>
@@ -766,27 +781,27 @@
       <c r="A15" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="B15" s="13">
+      <c r="B15" s="8">
         <v>60</v>
       </c>
       <c r="C15" s="3">
         <v>4495</v>
       </c>
-      <c r="D15" s="13">
+      <c r="D15" s="8">
         <f>AVERAGE(C15:C19)</f>
         <v>4465</v>
       </c>
       <c r="E15" s="3">
         <v>7</v>
       </c>
-      <c r="F15" s="13">
+      <c r="F15" s="8">
         <f t="shared" ref="F15" si="1">AVERAGE(E15:E19)</f>
         <v>6</v>
       </c>
       <c r="G15" s="3">
         <v>5498</v>
       </c>
-      <c r="H15" s="13">
+      <c r="H15" s="8">
         <f t="shared" ref="H15" si="2">AVERAGE(G15:G19)</f>
         <v>5529</v>
       </c>
@@ -797,19 +812,19 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A16" s="16"/>
-      <c r="B16" s="13"/>
+      <c r="B16" s="8"/>
       <c r="C16" s="3">
         <v>4456</v>
       </c>
-      <c r="D16" s="13"/>
+      <c r="D16" s="8"/>
       <c r="E16" s="3">
         <v>8</v>
       </c>
-      <c r="F16" s="13"/>
+      <c r="F16" s="8"/>
       <c r="G16" s="3">
         <v>5536</v>
       </c>
-      <c r="H16" s="13"/>
+      <c r="H16" s="8"/>
       <c r="I16">
         <f t="shared" si="0"/>
         <v>10000</v>
@@ -817,19 +832,19 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A17" s="16"/>
-      <c r="B17" s="13"/>
+      <c r="B17" s="8"/>
       <c r="C17" s="4">
         <v>4456</v>
       </c>
-      <c r="D17" s="13"/>
+      <c r="D17" s="8"/>
       <c r="E17" s="4">
         <v>4</v>
       </c>
-      <c r="F17" s="13"/>
+      <c r="F17" s="8"/>
       <c r="G17" s="4">
         <v>5540</v>
       </c>
-      <c r="H17" s="13"/>
+      <c r="H17" s="8"/>
       <c r="I17">
         <f t="shared" si="0"/>
         <v>10000</v>
@@ -837,19 +852,19 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A18" s="16"/>
-      <c r="B18" s="13"/>
+      <c r="B18" s="8"/>
       <c r="C18" s="4">
         <v>4459</v>
       </c>
-      <c r="D18" s="13"/>
+      <c r="D18" s="8"/>
       <c r="E18" s="4">
         <v>7</v>
       </c>
-      <c r="F18" s="13"/>
+      <c r="F18" s="8"/>
       <c r="G18" s="4">
         <v>5534</v>
       </c>
-      <c r="H18" s="13"/>
+      <c r="H18" s="8"/>
       <c r="I18">
         <f t="shared" si="0"/>
         <v>10000</v>
@@ -857,49 +872,49 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A19" s="16"/>
-      <c r="B19" s="13"/>
+      <c r="B19" s="8"/>
       <c r="C19" s="4">
         <v>4459</v>
       </c>
-      <c r="D19" s="13"/>
+      <c r="D19" s="8"/>
       <c r="E19" s="4">
         <v>4</v>
       </c>
-      <c r="F19" s="13"/>
+      <c r="F19" s="8"/>
       <c r="G19" s="4">
         <v>5537</v>
       </c>
-      <c r="H19" s="13"/>
+      <c r="H19" s="8"/>
       <c r="I19">
         <f t="shared" si="0"/>
         <v>10000</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="14.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="17" t="s">
+      <c r="A20" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="B20" s="9">
+      <c r="B20" s="20">
         <v>120</v>
       </c>
-      <c r="C20" s="5">
+      <c r="C20" s="21">
         <v>6412</v>
       </c>
-      <c r="D20" s="9">
+      <c r="D20" s="20">
         <f t="shared" ref="D20" si="3">AVERAGE(C20:C24)</f>
         <v>6416.2</v>
       </c>
-      <c r="E20" s="5">
-        <v>0</v>
-      </c>
-      <c r="F20" s="9">
+      <c r="E20" s="21">
+        <v>0</v>
+      </c>
+      <c r="F20" s="20">
         <f t="shared" ref="F20" si="4">AVERAGE(E20:E24)</f>
         <v>0</v>
       </c>
-      <c r="G20" s="5">
+      <c r="G20" s="21">
         <v>3588</v>
       </c>
-      <c r="H20" s="9">
+      <c r="H20" s="20">
         <f t="shared" ref="H20" si="5">AVERAGE(G20:G24)</f>
         <v>3583.8</v>
       </c>
@@ -909,80 +924,80 @@
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A21" s="17"/>
-      <c r="B21" s="9"/>
-      <c r="C21" s="5">
+      <c r="A21" s="19"/>
+      <c r="B21" s="20"/>
+      <c r="C21" s="21">
         <v>6430</v>
       </c>
-      <c r="D21" s="9"/>
-      <c r="E21" s="5">
-        <v>0</v>
-      </c>
-      <c r="F21" s="9"/>
-      <c r="G21" s="5">
+      <c r="D21" s="20"/>
+      <c r="E21" s="21">
+        <v>0</v>
+      </c>
+      <c r="F21" s="20"/>
+      <c r="G21" s="21">
         <v>3570</v>
       </c>
-      <c r="H21" s="9"/>
+      <c r="H21" s="20"/>
       <c r="I21">
         <f t="shared" si="0"/>
         <v>10000</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A22" s="17"/>
-      <c r="B22" s="9"/>
-      <c r="C22" s="5">
+      <c r="A22" s="19"/>
+      <c r="B22" s="20"/>
+      <c r="C22" s="21">
         <v>6414</v>
       </c>
-      <c r="D22" s="9"/>
-      <c r="E22" s="5">
-        <v>0</v>
-      </c>
-      <c r="F22" s="9"/>
-      <c r="G22" s="5">
+      <c r="D22" s="20"/>
+      <c r="E22" s="21">
+        <v>0</v>
+      </c>
+      <c r="F22" s="20"/>
+      <c r="G22" s="21">
         <v>3586</v>
       </c>
-      <c r="H22" s="9"/>
+      <c r="H22" s="20"/>
       <c r="I22">
         <f t="shared" si="0"/>
         <v>10000</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A23" s="17"/>
-      <c r="B23" s="9"/>
-      <c r="C23" s="5">
+      <c r="A23" s="19"/>
+      <c r="B23" s="20"/>
+      <c r="C23" s="21">
         <v>6423</v>
       </c>
-      <c r="D23" s="9"/>
-      <c r="E23" s="5">
-        <v>0</v>
-      </c>
-      <c r="F23" s="9"/>
-      <c r="G23" s="5">
+      <c r="D23" s="20"/>
+      <c r="E23" s="21">
+        <v>0</v>
+      </c>
+      <c r="F23" s="20"/>
+      <c r="G23" s="21">
         <v>3577</v>
       </c>
-      <c r="H23" s="9"/>
+      <c r="H23" s="20"/>
       <c r="I23">
         <f t="shared" si="0"/>
         <v>10000</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A24" s="17"/>
-      <c r="B24" s="9"/>
-      <c r="C24" s="5">
+      <c r="A24" s="19"/>
+      <c r="B24" s="20"/>
+      <c r="C24" s="21">
         <v>6402</v>
       </c>
-      <c r="D24" s="9"/>
-      <c r="E24" s="5">
-        <v>0</v>
-      </c>
-      <c r="F24" s="9"/>
-      <c r="G24" s="5">
+      <c r="D24" s="20"/>
+      <c r="E24" s="21">
+        <v>0</v>
+      </c>
+      <c r="F24" s="20"/>
+      <c r="G24" s="21">
         <v>3598</v>
       </c>
-      <c r="H24" s="9"/>
+      <c r="H24" s="20"/>
       <c r="I24">
         <f t="shared" si="0"/>
         <v>10000</v>
@@ -1102,7 +1117,7 @@
       </c>
     </row>
     <row r="30" spans="1:9" ht="14.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A30" s="8" t="s">
+      <c r="A30" s="14" t="s">
         <v>23</v>
       </c>
       <c r="B30" s="11">
@@ -1135,7 +1150,7 @@
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A31" s="8"/>
+      <c r="A31" s="14"/>
       <c r="B31" s="11"/>
       <c r="C31" s="7">
         <v>4278</v>
@@ -1155,7 +1170,7 @@
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A32" s="8"/>
+      <c r="A32" s="14"/>
       <c r="B32" s="11"/>
       <c r="C32" s="7">
         <v>4288</v>
@@ -1175,7 +1190,7 @@
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A33" s="8"/>
+      <c r="A33" s="14"/>
       <c r="B33" s="11"/>
       <c r="C33" s="7">
         <v>4284</v>
@@ -1195,7 +1210,7 @@
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A34" s="8"/>
+      <c r="A34" s="14"/>
       <c r="B34" s="11"/>
       <c r="C34" s="7">
         <v>4274</v>
@@ -1216,21 +1231,6 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="F15:F19"/>
-    <mergeCell ref="F20:F24"/>
-    <mergeCell ref="F25:F29"/>
-    <mergeCell ref="F30:F34"/>
-    <mergeCell ref="H15:H19"/>
-    <mergeCell ref="H20:H24"/>
-    <mergeCell ref="H25:H29"/>
-    <mergeCell ref="H30:H34"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="D10:D14"/>
-    <mergeCell ref="F10:F14"/>
-    <mergeCell ref="H10:H14"/>
-    <mergeCell ref="E8:F8"/>
     <mergeCell ref="A30:A34"/>
     <mergeCell ref="B20:B24"/>
     <mergeCell ref="B25:B29"/>
@@ -1246,8 +1246,24 @@
     <mergeCell ref="A15:A19"/>
     <mergeCell ref="A20:A24"/>
     <mergeCell ref="A25:A29"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="D10:D14"/>
+    <mergeCell ref="F10:F14"/>
+    <mergeCell ref="H10:H14"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="F15:F19"/>
+    <mergeCell ref="F20:F24"/>
+    <mergeCell ref="F25:F29"/>
+    <mergeCell ref="F30:F34"/>
+    <mergeCell ref="H15:H19"/>
+    <mergeCell ref="H20:H24"/>
+    <mergeCell ref="H25:H29"/>
+    <mergeCell ref="H30:H34"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1255,8 +1271,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:I34"/>
   <sheetViews>
-    <sheetView topLeftCell="B7" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="G30" sqref="G30"/>
+    <sheetView topLeftCell="A7" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="A35" sqref="A35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -1364,27 +1380,27 @@
       <c r="A10" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="14">
+      <c r="B10" s="13">
         <v>30</v>
       </c>
       <c r="C10" s="2">
         <v>4657</v>
       </c>
-      <c r="D10" s="14">
+      <c r="D10" s="13">
         <f>AVERAGE(C10:C14)</f>
         <v>4633.3999999999996</v>
       </c>
       <c r="E10" s="2">
         <v>21</v>
       </c>
-      <c r="F10" s="14">
+      <c r="F10" s="13">
         <f>AVERAGE(E10:E14)</f>
         <v>13.6</v>
       </c>
       <c r="G10" s="2">
         <v>5322</v>
       </c>
-      <c r="H10" s="14">
+      <c r="H10" s="13">
         <f>AVERAGE(G10:G14)</f>
         <v>5353</v>
       </c>
@@ -1395,19 +1411,19 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A11" s="15"/>
-      <c r="B11" s="14"/>
+      <c r="B11" s="13"/>
       <c r="C11" s="2">
         <v>4659</v>
       </c>
-      <c r="D11" s="14"/>
+      <c r="D11" s="13"/>
       <c r="E11" s="2">
         <v>12</v>
       </c>
-      <c r="F11" s="14"/>
+      <c r="F11" s="13"/>
       <c r="G11" s="2">
         <v>5329</v>
       </c>
-      <c r="H11" s="14"/>
+      <c r="H11" s="13"/>
       <c r="I11">
         <f t="shared" ref="I11:I34" si="0">SUM(C11,E11,G11)</f>
         <v>10000</v>
@@ -1415,19 +1431,19 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A12" s="15"/>
-      <c r="B12" s="14"/>
+      <c r="B12" s="13"/>
       <c r="C12" s="2">
         <v>4529</v>
       </c>
-      <c r="D12" s="14"/>
+      <c r="D12" s="13"/>
       <c r="E12" s="2">
         <v>14</v>
       </c>
-      <c r="F12" s="14"/>
+      <c r="F12" s="13"/>
       <c r="G12" s="2">
         <v>5457</v>
       </c>
-      <c r="H12" s="14"/>
+      <c r="H12" s="13"/>
       <c r="I12">
         <f t="shared" si="0"/>
         <v>10000</v>
@@ -1435,19 +1451,19 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A13" s="15"/>
-      <c r="B13" s="14"/>
+      <c r="B13" s="13"/>
       <c r="C13" s="2">
         <v>4690</v>
       </c>
-      <c r="D13" s="14"/>
+      <c r="D13" s="13"/>
       <c r="E13" s="2">
         <v>9</v>
       </c>
-      <c r="F13" s="14"/>
+      <c r="F13" s="13"/>
       <c r="G13" s="2">
         <v>5301</v>
       </c>
-      <c r="H13" s="14"/>
+      <c r="H13" s="13"/>
       <c r="I13">
         <f t="shared" si="0"/>
         <v>10000</v>
@@ -1455,19 +1471,19 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A14" s="15"/>
-      <c r="B14" s="14"/>
+      <c r="B14" s="13"/>
       <c r="C14" s="2">
         <v>4632</v>
       </c>
-      <c r="D14" s="14"/>
+      <c r="D14" s="13"/>
       <c r="E14" s="2">
         <v>12</v>
       </c>
-      <c r="F14" s="14"/>
+      <c r="F14" s="13"/>
       <c r="G14" s="2">
         <v>5356</v>
       </c>
-      <c r="H14" s="14"/>
+      <c r="H14" s="13"/>
       <c r="I14">
         <f t="shared" si="0"/>
         <v>10000</v>
@@ -1477,27 +1493,27 @@
       <c r="A15" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="B15" s="13">
+      <c r="B15" s="8">
         <v>60</v>
       </c>
       <c r="C15" s="3">
         <v>5024</v>
       </c>
-      <c r="D15" s="13">
+      <c r="D15" s="8">
         <f>AVERAGE(C15:C19)</f>
         <v>4941.3999999999996</v>
       </c>
       <c r="E15" s="3">
         <v>16</v>
       </c>
-      <c r="F15" s="13">
+      <c r="F15" s="8">
         <f t="shared" ref="F15" si="1">AVERAGE(E15:E19)</f>
         <v>14.4</v>
       </c>
       <c r="G15" s="3">
         <v>4960</v>
       </c>
-      <c r="H15" s="13">
+      <c r="H15" s="8">
         <f t="shared" ref="H15" si="2">AVERAGE(G15:G19)</f>
         <v>5044.2</v>
       </c>
@@ -1508,19 +1524,19 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A16" s="16"/>
-      <c r="B16" s="13"/>
+      <c r="B16" s="8"/>
       <c r="C16" s="3">
         <v>4896</v>
       </c>
-      <c r="D16" s="13"/>
+      <c r="D16" s="8"/>
       <c r="E16" s="3">
         <v>15</v>
       </c>
-      <c r="F16" s="13"/>
+      <c r="F16" s="8"/>
       <c r="G16" s="3">
         <v>5089</v>
       </c>
-      <c r="H16" s="13"/>
+      <c r="H16" s="8"/>
       <c r="I16">
         <f t="shared" si="0"/>
         <v>10000</v>
@@ -1528,19 +1544,19 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A17" s="16"/>
-      <c r="B17" s="13"/>
+      <c r="B17" s="8"/>
       <c r="C17" s="4">
         <v>4914</v>
       </c>
-      <c r="D17" s="13"/>
+      <c r="D17" s="8"/>
       <c r="E17" s="4">
         <v>18</v>
       </c>
-      <c r="F17" s="13"/>
+      <c r="F17" s="8"/>
       <c r="G17" s="4">
         <v>5068</v>
       </c>
-      <c r="H17" s="13"/>
+      <c r="H17" s="8"/>
       <c r="I17">
         <f t="shared" si="0"/>
         <v>10000</v>
@@ -1548,19 +1564,19 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A18" s="16"/>
-      <c r="B18" s="13"/>
+      <c r="B18" s="8"/>
       <c r="C18" s="4">
         <v>4925</v>
       </c>
-      <c r="D18" s="13"/>
+      <c r="D18" s="8"/>
       <c r="E18" s="4">
         <v>14</v>
       </c>
-      <c r="F18" s="13"/>
+      <c r="F18" s="8"/>
       <c r="G18" s="4">
         <v>5061</v>
       </c>
-      <c r="H18" s="13"/>
+      <c r="H18" s="8"/>
       <c r="I18">
         <f t="shared" si="0"/>
         <v>10000</v>
@@ -1568,19 +1584,19 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A19" s="16"/>
-      <c r="B19" s="13"/>
+      <c r="B19" s="8"/>
       <c r="C19" s="4">
         <v>4948</v>
       </c>
-      <c r="D19" s="13"/>
+      <c r="D19" s="8"/>
       <c r="E19" s="4">
         <v>9</v>
       </c>
-      <c r="F19" s="13"/>
+      <c r="F19" s="8"/>
       <c r="G19" s="4">
         <v>5043</v>
       </c>
-      <c r="H19" s="13"/>
+      <c r="H19" s="8"/>
       <c r="I19">
         <f t="shared" si="0"/>
         <v>10000</v>
@@ -1813,7 +1829,7 @@
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A30" s="8" t="s">
+      <c r="A30" s="14" t="s">
         <v>23</v>
       </c>
       <c r="B30" s="11">
@@ -1846,7 +1862,7 @@
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A31" s="8"/>
+      <c r="A31" s="14"/>
       <c r="B31" s="11"/>
       <c r="C31" s="7">
         <v>4963</v>
@@ -1866,7 +1882,7 @@
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A32" s="8"/>
+      <c r="A32" s="14"/>
       <c r="B32" s="11"/>
       <c r="C32" s="7">
         <v>4948</v>
@@ -1886,7 +1902,7 @@
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A33" s="8"/>
+      <c r="A33" s="14"/>
       <c r="B33" s="11"/>
       <c r="C33" s="7">
         <v>4927</v>
@@ -1906,7 +1922,7 @@
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A34" s="8"/>
+      <c r="A34" s="14"/>
       <c r="B34" s="11"/>
       <c r="C34" s="7">
         <v>5029</v>
@@ -1927,36 +1943,36 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="A10:A14"/>
+    <mergeCell ref="B10:B14"/>
+    <mergeCell ref="D10:D14"/>
+    <mergeCell ref="F10:F14"/>
+    <mergeCell ref="H10:H14"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="A20:A24"/>
+    <mergeCell ref="B20:B24"/>
+    <mergeCell ref="D20:D24"/>
+    <mergeCell ref="F20:F24"/>
+    <mergeCell ref="H20:H24"/>
+    <mergeCell ref="A15:A19"/>
+    <mergeCell ref="B15:B19"/>
+    <mergeCell ref="D15:D19"/>
+    <mergeCell ref="F15:F19"/>
+    <mergeCell ref="H15:H19"/>
+    <mergeCell ref="A30:A34"/>
+    <mergeCell ref="B30:B34"/>
+    <mergeCell ref="D30:D34"/>
+    <mergeCell ref="F30:F34"/>
+    <mergeCell ref="H30:H34"/>
     <mergeCell ref="A25:A29"/>
     <mergeCell ref="B25:B29"/>
     <mergeCell ref="D25:D29"/>
     <mergeCell ref="F25:F29"/>
     <mergeCell ref="H25:H29"/>
-    <mergeCell ref="A30:A34"/>
-    <mergeCell ref="B30:B34"/>
-    <mergeCell ref="D30:D34"/>
-    <mergeCell ref="F30:F34"/>
-    <mergeCell ref="H30:H34"/>
-    <mergeCell ref="A15:A19"/>
-    <mergeCell ref="B15:B19"/>
-    <mergeCell ref="D15:D19"/>
-    <mergeCell ref="F15:F19"/>
-    <mergeCell ref="H15:H19"/>
-    <mergeCell ref="A20:A24"/>
-    <mergeCell ref="B20:B24"/>
-    <mergeCell ref="D20:D24"/>
-    <mergeCell ref="F20:F24"/>
-    <mergeCell ref="H20:H24"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="A10:A14"/>
-    <mergeCell ref="B10:B14"/>
-    <mergeCell ref="D10:D14"/>
-    <mergeCell ref="F10:F14"/>
-    <mergeCell ref="H10:H14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Sicherung/NN300P2/Test NN DS300.xlsx
+++ b/Sicherung/NN300P2/Test NN DS300.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17030"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17127"/>
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -188,7 +188,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -203,46 +203,64 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -559,8 +577,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:I34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="F30" sqref="F10:F34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -623,28 +641,28 @@
       </c>
     </row>
     <row r="8" spans="1:9" ht="28.3" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="12" t="s">
+      <c r="A8" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="12" t="s">
+      <c r="B8" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="12" t="s">
+      <c r="C8" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12" t="s">
+      <c r="D8" s="13"/>
+      <c r="E8" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12" t="s">
+      <c r="F8" s="13"/>
+      <c r="G8" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="H8" s="12"/>
+      <c r="H8" s="13"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A9" s="12"/>
-      <c r="B9" s="12"/>
+      <c r="A9" s="13"/>
+      <c r="B9" s="13"/>
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -665,30 +683,30 @@
       </c>
     </row>
     <row r="10" spans="1:9" ht="14.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="15" t="s">
+      <c r="A10" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="13">
+      <c r="B10" s="15">
         <v>30</v>
       </c>
       <c r="C10" s="2">
         <v>4705</v>
       </c>
-      <c r="D10" s="13">
+      <c r="D10" s="22">
         <f>AVERAGE(C10:C14)</f>
         <v>4667.2</v>
       </c>
       <c r="E10" s="2">
         <v>5</v>
       </c>
-      <c r="F10" s="13">
+      <c r="F10" s="22">
         <f>AVERAGE(E10:E14)</f>
         <v>5.6</v>
       </c>
       <c r="G10" s="2">
         <v>5290</v>
       </c>
-      <c r="H10" s="13">
+      <c r="H10" s="22">
         <f>AVERAGE(G10:G14)</f>
         <v>5327.2</v>
       </c>
@@ -698,110 +716,110 @@
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A11" s="15"/>
-      <c r="B11" s="13"/>
+      <c r="A11" s="16"/>
+      <c r="B11" s="15"/>
       <c r="C11" s="2">
         <v>4613</v>
       </c>
-      <c r="D11" s="13"/>
+      <c r="D11" s="22"/>
       <c r="E11" s="2">
         <v>7</v>
       </c>
-      <c r="F11" s="13"/>
+      <c r="F11" s="22"/>
       <c r="G11" s="2">
         <v>5380</v>
       </c>
-      <c r="H11" s="13"/>
+      <c r="H11" s="22"/>
       <c r="I11">
         <f t="shared" ref="I11:I34" si="0">SUM(C11,E11,G11)</f>
         <v>10000</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A12" s="15"/>
-      <c r="B12" s="13"/>
+      <c r="A12" s="16"/>
+      <c r="B12" s="15"/>
       <c r="C12" s="2">
         <v>4660</v>
       </c>
-      <c r="D12" s="13"/>
+      <c r="D12" s="22"/>
       <c r="E12" s="2">
         <v>4</v>
       </c>
-      <c r="F12" s="13"/>
+      <c r="F12" s="22"/>
       <c r="G12" s="2">
         <v>5336</v>
       </c>
-      <c r="H12" s="13"/>
+      <c r="H12" s="22"/>
       <c r="I12">
         <f t="shared" si="0"/>
         <v>10000</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A13" s="15"/>
-      <c r="B13" s="13"/>
+      <c r="A13" s="16"/>
+      <c r="B13" s="15"/>
       <c r="C13" s="2">
         <v>4705</v>
       </c>
-      <c r="D13" s="13"/>
+      <c r="D13" s="22"/>
       <c r="E13" s="2">
         <v>8</v>
       </c>
-      <c r="F13" s="13"/>
+      <c r="F13" s="22"/>
       <c r="G13" s="2">
         <v>5287</v>
       </c>
-      <c r="H13" s="13"/>
+      <c r="H13" s="22"/>
       <c r="I13">
         <f t="shared" si="0"/>
         <v>10000</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A14" s="15"/>
-      <c r="B14" s="13"/>
+      <c r="A14" s="16"/>
+      <c r="B14" s="15"/>
       <c r="C14" s="2">
         <v>4653</v>
       </c>
-      <c r="D14" s="13"/>
+      <c r="D14" s="22"/>
       <c r="E14" s="2">
         <v>4</v>
       </c>
-      <c r="F14" s="13"/>
+      <c r="F14" s="22"/>
       <c r="G14" s="2">
         <v>5343</v>
       </c>
-      <c r="H14" s="13"/>
+      <c r="H14" s="22"/>
       <c r="I14">
         <f t="shared" si="0"/>
         <v>10000</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="14.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="16" t="s">
+      <c r="A15" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="B15" s="8">
+      <c r="B15" s="14">
         <v>60</v>
       </c>
       <c r="C15" s="3">
         <v>4495</v>
       </c>
-      <c r="D15" s="8">
+      <c r="D15" s="23">
         <f>AVERAGE(C15:C19)</f>
         <v>4465</v>
       </c>
       <c r="E15" s="3">
         <v>7</v>
       </c>
-      <c r="F15" s="8">
+      <c r="F15" s="23">
         <f t="shared" ref="F15" si="1">AVERAGE(E15:E19)</f>
         <v>6</v>
       </c>
       <c r="G15" s="3">
         <v>5498</v>
       </c>
-      <c r="H15" s="8">
+      <c r="H15" s="23">
         <f t="shared" ref="H15" si="2">AVERAGE(G15:G19)</f>
         <v>5529</v>
       </c>
@@ -811,110 +829,110 @@
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A16" s="16"/>
-      <c r="B16" s="8"/>
+      <c r="A16" s="17"/>
+      <c r="B16" s="14"/>
       <c r="C16" s="3">
         <v>4456</v>
       </c>
-      <c r="D16" s="8"/>
+      <c r="D16" s="23"/>
       <c r="E16" s="3">
         <v>8</v>
       </c>
-      <c r="F16" s="8"/>
+      <c r="F16" s="23"/>
       <c r="G16" s="3">
         <v>5536</v>
       </c>
-      <c r="H16" s="8"/>
+      <c r="H16" s="23"/>
       <c r="I16">
         <f t="shared" si="0"/>
         <v>10000</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A17" s="16"/>
-      <c r="B17" s="8"/>
+      <c r="A17" s="17"/>
+      <c r="B17" s="14"/>
       <c r="C17" s="4">
         <v>4456</v>
       </c>
-      <c r="D17" s="8"/>
+      <c r="D17" s="23"/>
       <c r="E17" s="4">
         <v>4</v>
       </c>
-      <c r="F17" s="8"/>
+      <c r="F17" s="23"/>
       <c r="G17" s="4">
         <v>5540</v>
       </c>
-      <c r="H17" s="8"/>
+      <c r="H17" s="23"/>
       <c r="I17">
         <f t="shared" si="0"/>
         <v>10000</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A18" s="16"/>
-      <c r="B18" s="8"/>
+      <c r="A18" s="17"/>
+      <c r="B18" s="14"/>
       <c r="C18" s="4">
         <v>4459</v>
       </c>
-      <c r="D18" s="8"/>
+      <c r="D18" s="23"/>
       <c r="E18" s="4">
         <v>7</v>
       </c>
-      <c r="F18" s="8"/>
+      <c r="F18" s="23"/>
       <c r="G18" s="4">
         <v>5534</v>
       </c>
-      <c r="H18" s="8"/>
+      <c r="H18" s="23"/>
       <c r="I18">
         <f t="shared" si="0"/>
         <v>10000</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A19" s="16"/>
-      <c r="B19" s="8"/>
+      <c r="A19" s="17"/>
+      <c r="B19" s="14"/>
       <c r="C19" s="4">
         <v>4459</v>
       </c>
-      <c r="D19" s="8"/>
+      <c r="D19" s="23"/>
       <c r="E19" s="4">
         <v>4</v>
       </c>
-      <c r="F19" s="8"/>
+      <c r="F19" s="23"/>
       <c r="G19" s="4">
         <v>5537</v>
       </c>
-      <c r="H19" s="8"/>
+      <c r="H19" s="23"/>
       <c r="I19">
         <f t="shared" si="0"/>
         <v>10000</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="14.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="19" t="s">
+      <c r="A20" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="B20" s="20">
+      <c r="B20" s="10">
         <v>120</v>
       </c>
-      <c r="C20" s="21">
+      <c r="C20" s="8">
         <v>6412</v>
       </c>
-      <c r="D20" s="20">
+      <c r="D20" s="24">
         <f t="shared" ref="D20" si="3">AVERAGE(C20:C24)</f>
         <v>6416.2</v>
       </c>
-      <c r="E20" s="21">
-        <v>0</v>
-      </c>
-      <c r="F20" s="20">
+      <c r="E20" s="8">
+        <v>0</v>
+      </c>
+      <c r="F20" s="24">
         <f t="shared" ref="F20" si="4">AVERAGE(E20:E24)</f>
         <v>0</v>
       </c>
-      <c r="G20" s="21">
+      <c r="G20" s="8">
         <v>3588</v>
       </c>
-      <c r="H20" s="20">
+      <c r="H20" s="24">
         <f t="shared" ref="H20" si="5">AVERAGE(G20:G24)</f>
         <v>3583.8</v>
       </c>
@@ -924,110 +942,110 @@
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A21" s="19"/>
-      <c r="B21" s="20"/>
-      <c r="C21" s="21">
+      <c r="A21" s="18"/>
+      <c r="B21" s="10"/>
+      <c r="C21" s="8">
         <v>6430</v>
       </c>
-      <c r="D21" s="20"/>
-      <c r="E21" s="21">
-        <v>0</v>
-      </c>
-      <c r="F21" s="20"/>
-      <c r="G21" s="21">
+      <c r="D21" s="24"/>
+      <c r="E21" s="8">
+        <v>0</v>
+      </c>
+      <c r="F21" s="24"/>
+      <c r="G21" s="8">
         <v>3570</v>
       </c>
-      <c r="H21" s="20"/>
+      <c r="H21" s="24"/>
       <c r="I21">
         <f t="shared" si="0"/>
         <v>10000</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A22" s="19"/>
-      <c r="B22" s="20"/>
-      <c r="C22" s="21">
+      <c r="A22" s="18"/>
+      <c r="B22" s="10"/>
+      <c r="C22" s="8">
         <v>6414</v>
       </c>
-      <c r="D22" s="20"/>
-      <c r="E22" s="21">
-        <v>0</v>
-      </c>
-      <c r="F22" s="20"/>
-      <c r="G22" s="21">
+      <c r="D22" s="24"/>
+      <c r="E22" s="8">
+        <v>0</v>
+      </c>
+      <c r="F22" s="24"/>
+      <c r="G22" s="8">
         <v>3586</v>
       </c>
-      <c r="H22" s="20"/>
+      <c r="H22" s="24"/>
       <c r="I22">
         <f t="shared" si="0"/>
         <v>10000</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A23" s="19"/>
-      <c r="B23" s="20"/>
-      <c r="C23" s="21">
+      <c r="A23" s="18"/>
+      <c r="B23" s="10"/>
+      <c r="C23" s="8">
         <v>6423</v>
       </c>
-      <c r="D23" s="20"/>
-      <c r="E23" s="21">
-        <v>0</v>
-      </c>
-      <c r="F23" s="20"/>
-      <c r="G23" s="21">
+      <c r="D23" s="24"/>
+      <c r="E23" s="8">
+        <v>0</v>
+      </c>
+      <c r="F23" s="24"/>
+      <c r="G23" s="8">
         <v>3577</v>
       </c>
-      <c r="H23" s="20"/>
+      <c r="H23" s="24"/>
       <c r="I23">
         <f t="shared" si="0"/>
         <v>10000</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A24" s="19"/>
-      <c r="B24" s="20"/>
-      <c r="C24" s="21">
+      <c r="A24" s="18"/>
+      <c r="B24" s="10"/>
+      <c r="C24" s="8">
         <v>6402</v>
       </c>
-      <c r="D24" s="20"/>
-      <c r="E24" s="21">
-        <v>0</v>
-      </c>
-      <c r="F24" s="20"/>
-      <c r="G24" s="21">
+      <c r="D24" s="24"/>
+      <c r="E24" s="8">
+        <v>0</v>
+      </c>
+      <c r="F24" s="24"/>
+      <c r="G24" s="8">
         <v>3598</v>
       </c>
-      <c r="H24" s="20"/>
+      <c r="H24" s="24"/>
       <c r="I24">
         <f t="shared" si="0"/>
         <v>10000</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="14.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A25" s="18" t="s">
+      <c r="A25" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="B25" s="10">
+      <c r="B25" s="11">
         <v>180</v>
       </c>
       <c r="C25" s="6">
         <v>3287</v>
       </c>
-      <c r="D25" s="10">
+      <c r="D25" s="25">
         <f t="shared" ref="D25" si="6">AVERAGE(C25:C29)</f>
         <v>3309.8</v>
       </c>
       <c r="E25" s="6">
         <v>0</v>
       </c>
-      <c r="F25" s="10">
+      <c r="F25" s="25">
         <f t="shared" ref="F25" si="7">AVERAGE(E25:E29)</f>
         <v>0</v>
       </c>
       <c r="G25" s="6">
         <v>6713</v>
       </c>
-      <c r="H25" s="10">
+      <c r="H25" s="25">
         <f t="shared" ref="H25" si="8">AVERAGE(G25:G29)</f>
         <v>6690.2</v>
       </c>
@@ -1037,110 +1055,110 @@
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A26" s="18"/>
-      <c r="B26" s="10"/>
+      <c r="A26" s="19"/>
+      <c r="B26" s="11"/>
       <c r="C26" s="6">
         <v>3368</v>
       </c>
-      <c r="D26" s="10"/>
+      <c r="D26" s="25"/>
       <c r="E26" s="6">
         <v>0</v>
       </c>
-      <c r="F26" s="10"/>
+      <c r="F26" s="25"/>
       <c r="G26" s="6">
         <v>6632</v>
       </c>
-      <c r="H26" s="10"/>
+      <c r="H26" s="25"/>
       <c r="I26">
         <f t="shared" si="0"/>
         <v>10000</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A27" s="18"/>
-      <c r="B27" s="10"/>
+      <c r="A27" s="19"/>
+      <c r="B27" s="11"/>
       <c r="C27" s="6">
         <v>3371</v>
       </c>
-      <c r="D27" s="10"/>
+      <c r="D27" s="25"/>
       <c r="E27" s="6">
         <v>0</v>
       </c>
-      <c r="F27" s="10"/>
+      <c r="F27" s="25"/>
       <c r="G27" s="6">
         <v>6629</v>
       </c>
-      <c r="H27" s="10"/>
+      <c r="H27" s="25"/>
       <c r="I27">
         <f t="shared" si="0"/>
         <v>10000</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A28" s="18"/>
-      <c r="B28" s="10"/>
+      <c r="A28" s="19"/>
+      <c r="B28" s="11"/>
       <c r="C28" s="6">
         <v>3279</v>
       </c>
-      <c r="D28" s="10"/>
+      <c r="D28" s="25"/>
       <c r="E28" s="6">
         <v>0</v>
       </c>
-      <c r="F28" s="10"/>
+      <c r="F28" s="25"/>
       <c r="G28" s="6">
         <v>6721</v>
       </c>
-      <c r="H28" s="10"/>
+      <c r="H28" s="25"/>
       <c r="I28">
         <f t="shared" si="0"/>
         <v>10000</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A29" s="18"/>
-      <c r="B29" s="10"/>
+      <c r="A29" s="19"/>
+      <c r="B29" s="11"/>
       <c r="C29" s="6">
         <v>3244</v>
       </c>
-      <c r="D29" s="10"/>
+      <c r="D29" s="25"/>
       <c r="E29" s="6">
         <v>0</v>
       </c>
-      <c r="F29" s="10"/>
+      <c r="F29" s="25"/>
       <c r="G29" s="6">
         <v>6756</v>
       </c>
-      <c r="H29" s="10"/>
+      <c r="H29" s="25"/>
       <c r="I29">
         <f t="shared" si="0"/>
         <v>10000</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="14.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A30" s="14" t="s">
+      <c r="A30" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="B30" s="11">
+      <c r="B30" s="12">
         <v>240</v>
       </c>
       <c r="C30" s="7">
         <v>4266</v>
       </c>
-      <c r="D30" s="11">
+      <c r="D30" s="26">
         <f t="shared" ref="D30" si="9">AVERAGE(C30:C34)</f>
         <v>4278</v>
       </c>
       <c r="E30" s="7">
         <v>0</v>
       </c>
-      <c r="F30" s="11">
+      <c r="F30" s="26">
         <f>AVERAGE(E30:E34)</f>
         <v>0</v>
       </c>
       <c r="G30" s="7">
         <v>5734</v>
       </c>
-      <c r="H30" s="11">
+      <c r="H30" s="26">
         <f t="shared" ref="H30" si="10">AVERAGE(G30:G34)</f>
         <v>5722</v>
       </c>
@@ -1150,80 +1168,80 @@
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A31" s="14"/>
-      <c r="B31" s="11"/>
+      <c r="A31" s="9"/>
+      <c r="B31" s="12"/>
       <c r="C31" s="7">
         <v>4278</v>
       </c>
-      <c r="D31" s="11"/>
+      <c r="D31" s="26"/>
       <c r="E31" s="7">
         <v>0</v>
       </c>
-      <c r="F31" s="11"/>
+      <c r="F31" s="26"/>
       <c r="G31" s="7">
         <v>5722</v>
       </c>
-      <c r="H31" s="11"/>
+      <c r="H31" s="26"/>
       <c r="I31">
         <f t="shared" si="0"/>
         <v>10000</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A32" s="14"/>
-      <c r="B32" s="11"/>
+      <c r="A32" s="9"/>
+      <c r="B32" s="12"/>
       <c r="C32" s="7">
         <v>4288</v>
       </c>
-      <c r="D32" s="11"/>
+      <c r="D32" s="26"/>
       <c r="E32" s="7">
         <v>0</v>
       </c>
-      <c r="F32" s="11"/>
+      <c r="F32" s="26"/>
       <c r="G32" s="7">
         <v>5712</v>
       </c>
-      <c r="H32" s="11"/>
+      <c r="H32" s="26"/>
       <c r="I32">
         <f>SUM(C32,E32,G32)</f>
         <v>10000</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A33" s="14"/>
-      <c r="B33" s="11"/>
+      <c r="A33" s="9"/>
+      <c r="B33" s="12"/>
       <c r="C33" s="7">
         <v>4284</v>
       </c>
-      <c r="D33" s="11"/>
+      <c r="D33" s="26"/>
       <c r="E33" s="7">
         <v>0</v>
       </c>
-      <c r="F33" s="11"/>
+      <c r="F33" s="26"/>
       <c r="G33" s="7">
         <v>5716</v>
       </c>
-      <c r="H33" s="11"/>
+      <c r="H33" s="26"/>
       <c r="I33">
         <f t="shared" si="0"/>
         <v>10000</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A34" s="14"/>
-      <c r="B34" s="11"/>
+      <c r="A34" s="9"/>
+      <c r="B34" s="12"/>
       <c r="C34" s="7">
         <v>4274</v>
       </c>
-      <c r="D34" s="11"/>
+      <c r="D34" s="26"/>
       <c r="E34" s="7">
         <v>0</v>
       </c>
-      <c r="F34" s="11"/>
+      <c r="F34" s="26"/>
       <c r="G34" s="7">
         <v>5726</v>
       </c>
-      <c r="H34" s="11"/>
+      <c r="H34" s="26"/>
       <c r="I34">
         <f t="shared" si="0"/>
         <v>10000</v>
@@ -1231,6 +1249,21 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="F15:F19"/>
+    <mergeCell ref="F20:F24"/>
+    <mergeCell ref="F25:F29"/>
+    <mergeCell ref="F30:F34"/>
+    <mergeCell ref="H15:H19"/>
+    <mergeCell ref="H20:H24"/>
+    <mergeCell ref="H25:H29"/>
+    <mergeCell ref="H30:H34"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="D10:D14"/>
+    <mergeCell ref="F10:F14"/>
+    <mergeCell ref="H10:H14"/>
+    <mergeCell ref="E8:F8"/>
     <mergeCell ref="A30:A34"/>
     <mergeCell ref="B20:B24"/>
     <mergeCell ref="B25:B29"/>
@@ -1246,21 +1279,6 @@
     <mergeCell ref="A15:A19"/>
     <mergeCell ref="A20:A24"/>
     <mergeCell ref="A25:A29"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="D10:D14"/>
-    <mergeCell ref="F10:F14"/>
-    <mergeCell ref="H10:H14"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="F15:F19"/>
-    <mergeCell ref="F20:F24"/>
-    <mergeCell ref="F25:F29"/>
-    <mergeCell ref="F30:F34"/>
-    <mergeCell ref="H15:H19"/>
-    <mergeCell ref="H20:H24"/>
-    <mergeCell ref="H25:H29"/>
-    <mergeCell ref="H30:H34"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
@@ -1272,7 +1290,7 @@
   <dimension ref="A2:I34"/>
   <sheetViews>
     <sheetView topLeftCell="A7" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A35" sqref="A35"/>
+      <selection activeCell="F10" sqref="F10:F34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -1335,28 +1353,28 @@
       </c>
     </row>
     <row r="8" spans="1:9" ht="28.3" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="12" t="s">
+      <c r="A8" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="12" t="s">
+      <c r="B8" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="12" t="s">
+      <c r="C8" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12" t="s">
+      <c r="D8" s="13"/>
+      <c r="E8" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12" t="s">
+      <c r="F8" s="13"/>
+      <c r="G8" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="H8" s="12"/>
+      <c r="H8" s="13"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A9" s="12"/>
-      <c r="B9" s="12"/>
+      <c r="A9" s="13"/>
+      <c r="B9" s="13"/>
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -1377,30 +1395,30 @@
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A10" s="15" t="s">
+      <c r="A10" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="13">
+      <c r="B10" s="15">
         <v>30</v>
       </c>
       <c r="C10" s="2">
         <v>4657</v>
       </c>
-      <c r="D10" s="13">
+      <c r="D10" s="22">
         <f>AVERAGE(C10:C14)</f>
         <v>4633.3999999999996</v>
       </c>
       <c r="E10" s="2">
         <v>21</v>
       </c>
-      <c r="F10" s="13">
+      <c r="F10" s="22">
         <f>AVERAGE(E10:E14)</f>
         <v>13.6</v>
       </c>
       <c r="G10" s="2">
         <v>5322</v>
       </c>
-      <c r="H10" s="13">
+      <c r="H10" s="22">
         <f>AVERAGE(G10:G14)</f>
         <v>5353</v>
       </c>
@@ -1410,110 +1428,110 @@
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A11" s="15"/>
-      <c r="B11" s="13"/>
+      <c r="A11" s="16"/>
+      <c r="B11" s="15"/>
       <c r="C11" s="2">
         <v>4659</v>
       </c>
-      <c r="D11" s="13"/>
+      <c r="D11" s="22"/>
       <c r="E11" s="2">
         <v>12</v>
       </c>
-      <c r="F11" s="13"/>
+      <c r="F11" s="22"/>
       <c r="G11" s="2">
         <v>5329</v>
       </c>
-      <c r="H11" s="13"/>
+      <c r="H11" s="22"/>
       <c r="I11">
         <f t="shared" ref="I11:I34" si="0">SUM(C11,E11,G11)</f>
         <v>10000</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A12" s="15"/>
-      <c r="B12" s="13"/>
+      <c r="A12" s="16"/>
+      <c r="B12" s="15"/>
       <c r="C12" s="2">
         <v>4529</v>
       </c>
-      <c r="D12" s="13"/>
+      <c r="D12" s="22"/>
       <c r="E12" s="2">
         <v>14</v>
       </c>
-      <c r="F12" s="13"/>
+      <c r="F12" s="22"/>
       <c r="G12" s="2">
         <v>5457</v>
       </c>
-      <c r="H12" s="13"/>
+      <c r="H12" s="22"/>
       <c r="I12">
         <f t="shared" si="0"/>
         <v>10000</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A13" s="15"/>
-      <c r="B13" s="13"/>
+      <c r="A13" s="16"/>
+      <c r="B13" s="15"/>
       <c r="C13" s="2">
         <v>4690</v>
       </c>
-      <c r="D13" s="13"/>
+      <c r="D13" s="22"/>
       <c r="E13" s="2">
         <v>9</v>
       </c>
-      <c r="F13" s="13"/>
+      <c r="F13" s="22"/>
       <c r="G13" s="2">
         <v>5301</v>
       </c>
-      <c r="H13" s="13"/>
+      <c r="H13" s="22"/>
       <c r="I13">
         <f t="shared" si="0"/>
         <v>10000</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A14" s="15"/>
-      <c r="B14" s="13"/>
+      <c r="A14" s="16"/>
+      <c r="B14" s="15"/>
       <c r="C14" s="2">
         <v>4632</v>
       </c>
-      <c r="D14" s="13"/>
+      <c r="D14" s="22"/>
       <c r="E14" s="2">
         <v>12</v>
       </c>
-      <c r="F14" s="13"/>
+      <c r="F14" s="22"/>
       <c r="G14" s="2">
         <v>5356</v>
       </c>
-      <c r="H14" s="13"/>
+      <c r="H14" s="22"/>
       <c r="I14">
         <f t="shared" si="0"/>
         <v>10000</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A15" s="16" t="s">
+      <c r="A15" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="B15" s="8">
+      <c r="B15" s="14">
         <v>60</v>
       </c>
       <c r="C15" s="3">
         <v>5024</v>
       </c>
-      <c r="D15" s="8">
+      <c r="D15" s="23">
         <f>AVERAGE(C15:C19)</f>
         <v>4941.3999999999996</v>
       </c>
       <c r="E15" s="3">
         <v>16</v>
       </c>
-      <c r="F15" s="8">
+      <c r="F15" s="23">
         <f t="shared" ref="F15" si="1">AVERAGE(E15:E19)</f>
         <v>14.4</v>
       </c>
       <c r="G15" s="3">
         <v>4960</v>
       </c>
-      <c r="H15" s="8">
+      <c r="H15" s="23">
         <f t="shared" ref="H15" si="2">AVERAGE(G15:G19)</f>
         <v>5044.2</v>
       </c>
@@ -1523,110 +1541,110 @@
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A16" s="16"/>
-      <c r="B16" s="8"/>
+      <c r="A16" s="17"/>
+      <c r="B16" s="14"/>
       <c r="C16" s="3">
         <v>4896</v>
       </c>
-      <c r="D16" s="8"/>
+      <c r="D16" s="23"/>
       <c r="E16" s="3">
         <v>15</v>
       </c>
-      <c r="F16" s="8"/>
+      <c r="F16" s="23"/>
       <c r="G16" s="3">
         <v>5089</v>
       </c>
-      <c r="H16" s="8"/>
+      <c r="H16" s="23"/>
       <c r="I16">
         <f t="shared" si="0"/>
         <v>10000</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A17" s="16"/>
-      <c r="B17" s="8"/>
+      <c r="A17" s="17"/>
+      <c r="B17" s="14"/>
       <c r="C17" s="4">
         <v>4914</v>
       </c>
-      <c r="D17" s="8"/>
+      <c r="D17" s="23"/>
       <c r="E17" s="4">
         <v>18</v>
       </c>
-      <c r="F17" s="8"/>
+      <c r="F17" s="23"/>
       <c r="G17" s="4">
         <v>5068</v>
       </c>
-      <c r="H17" s="8"/>
+      <c r="H17" s="23"/>
       <c r="I17">
         <f t="shared" si="0"/>
         <v>10000</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A18" s="16"/>
-      <c r="B18" s="8"/>
+      <c r="A18" s="17"/>
+      <c r="B18" s="14"/>
       <c r="C18" s="4">
         <v>4925</v>
       </c>
-      <c r="D18" s="8"/>
+      <c r="D18" s="23"/>
       <c r="E18" s="4">
         <v>14</v>
       </c>
-      <c r="F18" s="8"/>
+      <c r="F18" s="23"/>
       <c r="G18" s="4">
         <v>5061</v>
       </c>
-      <c r="H18" s="8"/>
+      <c r="H18" s="23"/>
       <c r="I18">
         <f t="shared" si="0"/>
         <v>10000</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A19" s="16"/>
-      <c r="B19" s="8"/>
+      <c r="A19" s="17"/>
+      <c r="B19" s="14"/>
       <c r="C19" s="4">
         <v>4948</v>
       </c>
-      <c r="D19" s="8"/>
+      <c r="D19" s="23"/>
       <c r="E19" s="4">
         <v>9</v>
       </c>
-      <c r="F19" s="8"/>
+      <c r="F19" s="23"/>
       <c r="G19" s="4">
         <v>5043</v>
       </c>
-      <c r="H19" s="8"/>
+      <c r="H19" s="23"/>
       <c r="I19">
         <f t="shared" si="0"/>
         <v>10000</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A20" s="17" t="s">
+      <c r="A20" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="B20" s="9">
+      <c r="B20" s="21">
         <v>120</v>
       </c>
       <c r="C20" s="5">
         <v>4810</v>
       </c>
-      <c r="D20" s="9">
+      <c r="D20" s="27">
         <f t="shared" ref="D20" si="3">AVERAGE(C20:C24)</f>
         <v>4809.6000000000004</v>
       </c>
       <c r="E20" s="5">
         <v>0</v>
       </c>
-      <c r="F20" s="9">
+      <c r="F20" s="27">
         <f t="shared" ref="F20" si="4">AVERAGE(E20:E24)</f>
         <v>0</v>
       </c>
       <c r="G20" s="5">
         <v>5190</v>
       </c>
-      <c r="H20" s="9">
+      <c r="H20" s="27">
         <f t="shared" ref="H20" si="5">AVERAGE(G20:G24)</f>
         <v>5190.3999999999996</v>
       </c>
@@ -1636,110 +1654,110 @@
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A21" s="17"/>
-      <c r="B21" s="9"/>
+      <c r="A21" s="20"/>
+      <c r="B21" s="21"/>
       <c r="C21" s="5">
         <v>4877</v>
       </c>
-      <c r="D21" s="9"/>
+      <c r="D21" s="27"/>
       <c r="E21" s="5">
         <v>0</v>
       </c>
-      <c r="F21" s="9"/>
+      <c r="F21" s="27"/>
       <c r="G21" s="5">
         <v>5123</v>
       </c>
-      <c r="H21" s="9"/>
+      <c r="H21" s="27"/>
       <c r="I21">
         <f t="shared" si="0"/>
         <v>10000</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A22" s="17"/>
-      <c r="B22" s="9"/>
+      <c r="A22" s="20"/>
+      <c r="B22" s="21"/>
       <c r="C22" s="5">
         <v>4702</v>
       </c>
-      <c r="D22" s="9"/>
+      <c r="D22" s="27"/>
       <c r="E22" s="5">
         <v>0</v>
       </c>
-      <c r="F22" s="9"/>
+      <c r="F22" s="27"/>
       <c r="G22" s="5">
         <v>5298</v>
       </c>
-      <c r="H22" s="9"/>
+      <c r="H22" s="27"/>
       <c r="I22">
         <f t="shared" si="0"/>
         <v>10000</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A23" s="17"/>
-      <c r="B23" s="9"/>
+      <c r="A23" s="20"/>
+      <c r="B23" s="21"/>
       <c r="C23" s="5">
         <v>4790</v>
       </c>
-      <c r="D23" s="9"/>
+      <c r="D23" s="27"/>
       <c r="E23" s="5">
         <v>0</v>
       </c>
-      <c r="F23" s="9"/>
+      <c r="F23" s="27"/>
       <c r="G23" s="5">
         <v>5210</v>
       </c>
-      <c r="H23" s="9"/>
+      <c r="H23" s="27"/>
       <c r="I23">
         <f t="shared" si="0"/>
         <v>10000</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A24" s="17"/>
-      <c r="B24" s="9"/>
+      <c r="A24" s="20"/>
+      <c r="B24" s="21"/>
       <c r="C24" s="5">
         <v>4869</v>
       </c>
-      <c r="D24" s="9"/>
+      <c r="D24" s="27"/>
       <c r="E24" s="5">
         <v>0</v>
       </c>
-      <c r="F24" s="9"/>
+      <c r="F24" s="27"/>
       <c r="G24" s="5">
         <v>5131</v>
       </c>
-      <c r="H24" s="9"/>
+      <c r="H24" s="27"/>
       <c r="I24">
         <f t="shared" si="0"/>
         <v>10000</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A25" s="18" t="s">
+      <c r="A25" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="B25" s="10">
+      <c r="B25" s="11">
         <v>180</v>
       </c>
       <c r="C25" s="6">
         <v>4866</v>
       </c>
-      <c r="D25" s="10">
+      <c r="D25" s="25">
         <f t="shared" ref="D25" si="6">AVERAGE(C25:C29)</f>
         <v>4896.6000000000004</v>
       </c>
       <c r="E25" s="6">
         <v>0</v>
       </c>
-      <c r="F25" s="10">
+      <c r="F25" s="25">
         <f t="shared" ref="F25" si="7">AVERAGE(E25:E29)</f>
         <v>0</v>
       </c>
       <c r="G25" s="6">
         <v>5134</v>
       </c>
-      <c r="H25" s="10">
+      <c r="H25" s="25">
         <f t="shared" ref="H25" si="8">AVERAGE(G25:G29)</f>
         <v>5103.3999999999996</v>
       </c>
@@ -1749,110 +1767,110 @@
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A26" s="18"/>
-      <c r="B26" s="10"/>
+      <c r="A26" s="19"/>
+      <c r="B26" s="11"/>
       <c r="C26" s="6">
         <v>4913</v>
       </c>
-      <c r="D26" s="10"/>
+      <c r="D26" s="25"/>
       <c r="E26" s="6">
         <v>0</v>
       </c>
-      <c r="F26" s="10"/>
+      <c r="F26" s="25"/>
       <c r="G26" s="6">
         <v>5087</v>
       </c>
-      <c r="H26" s="10"/>
+      <c r="H26" s="25"/>
       <c r="I26">
         <f t="shared" si="0"/>
         <v>10000</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A27" s="18"/>
-      <c r="B27" s="10"/>
+      <c r="A27" s="19"/>
+      <c r="B27" s="11"/>
       <c r="C27" s="6">
         <v>4888</v>
       </c>
-      <c r="D27" s="10"/>
+      <c r="D27" s="25"/>
       <c r="E27" s="6">
         <v>0</v>
       </c>
-      <c r="F27" s="10"/>
+      <c r="F27" s="25"/>
       <c r="G27" s="6">
         <v>5112</v>
       </c>
-      <c r="H27" s="10"/>
+      <c r="H27" s="25"/>
       <c r="I27">
         <f t="shared" si="0"/>
         <v>10000</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A28" s="18"/>
-      <c r="B28" s="10"/>
+      <c r="A28" s="19"/>
+      <c r="B28" s="11"/>
       <c r="C28" s="6">
         <v>4909</v>
       </c>
-      <c r="D28" s="10"/>
+      <c r="D28" s="25"/>
       <c r="E28" s="6">
         <v>0</v>
       </c>
-      <c r="F28" s="10"/>
+      <c r="F28" s="25"/>
       <c r="G28" s="6">
         <v>5091</v>
       </c>
-      <c r="H28" s="10"/>
+      <c r="H28" s="25"/>
       <c r="I28">
         <f t="shared" si="0"/>
         <v>10000</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A29" s="18"/>
-      <c r="B29" s="10"/>
+      <c r="A29" s="19"/>
+      <c r="B29" s="11"/>
       <c r="C29" s="6">
         <v>4907</v>
       </c>
-      <c r="D29" s="10"/>
+      <c r="D29" s="25"/>
       <c r="E29" s="6">
         <v>0</v>
       </c>
-      <c r="F29" s="10"/>
+      <c r="F29" s="25"/>
       <c r="G29" s="6">
         <v>5093</v>
       </c>
-      <c r="H29" s="10"/>
+      <c r="H29" s="25"/>
       <c r="I29">
         <f t="shared" si="0"/>
         <v>10000</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A30" s="14" t="s">
+      <c r="A30" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="B30" s="11">
+      <c r="B30" s="12">
         <v>240</v>
       </c>
       <c r="C30" s="7">
         <v>4886</v>
       </c>
-      <c r="D30" s="11">
+      <c r="D30" s="26">
         <f t="shared" ref="D30" si="9">AVERAGE(C30:C34)</f>
         <v>4950.6000000000004</v>
       </c>
       <c r="E30" s="7">
         <v>0</v>
       </c>
-      <c r="F30" s="11">
+      <c r="F30" s="26">
         <f>AVERAGE(E30:E34)</f>
         <v>0</v>
       </c>
       <c r="G30" s="7">
         <v>5114</v>
       </c>
-      <c r="H30" s="11">
+      <c r="H30" s="26">
         <f t="shared" ref="H30" si="10">AVERAGE(G30:G34)</f>
         <v>5049.3999999999996</v>
       </c>
@@ -1862,80 +1880,80 @@
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A31" s="14"/>
-      <c r="B31" s="11"/>
+      <c r="A31" s="9"/>
+      <c r="B31" s="12"/>
       <c r="C31" s="7">
         <v>4963</v>
       </c>
-      <c r="D31" s="11"/>
+      <c r="D31" s="26"/>
       <c r="E31" s="7">
         <v>0</v>
       </c>
-      <c r="F31" s="11"/>
+      <c r="F31" s="26"/>
       <c r="G31" s="7">
         <v>5037</v>
       </c>
-      <c r="H31" s="11"/>
+      <c r="H31" s="26"/>
       <c r="I31">
         <f t="shared" si="0"/>
         <v>10000</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A32" s="14"/>
-      <c r="B32" s="11"/>
+      <c r="A32" s="9"/>
+      <c r="B32" s="12"/>
       <c r="C32" s="7">
         <v>4948</v>
       </c>
-      <c r="D32" s="11"/>
+      <c r="D32" s="26"/>
       <c r="E32" s="7">
         <v>0</v>
       </c>
-      <c r="F32" s="11"/>
+      <c r="F32" s="26"/>
       <c r="G32" s="7">
         <v>5052</v>
       </c>
-      <c r="H32" s="11"/>
+      <c r="H32" s="26"/>
       <c r="I32">
         <f>SUM(C32,E32,G32)</f>
         <v>10000</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A33" s="14"/>
-      <c r="B33" s="11"/>
+      <c r="A33" s="9"/>
+      <c r="B33" s="12"/>
       <c r="C33" s="7">
         <v>4927</v>
       </c>
-      <c r="D33" s="11"/>
+      <c r="D33" s="26"/>
       <c r="E33" s="7">
         <v>0</v>
       </c>
-      <c r="F33" s="11"/>
+      <c r="F33" s="26"/>
       <c r="G33" s="7">
         <v>5073</v>
       </c>
-      <c r="H33" s="11"/>
+      <c r="H33" s="26"/>
       <c r="I33">
         <f t="shared" si="0"/>
         <v>10000</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A34" s="14"/>
-      <c r="B34" s="11"/>
+      <c r="A34" s="9"/>
+      <c r="B34" s="12"/>
       <c r="C34" s="7">
         <v>5029</v>
       </c>
-      <c r="D34" s="11"/>
+      <c r="D34" s="26"/>
       <c r="E34" s="7">
         <v>0</v>
       </c>
-      <c r="F34" s="11"/>
+      <c r="F34" s="26"/>
       <c r="G34" s="7">
         <v>4971</v>
       </c>
-      <c r="H34" s="11"/>
+      <c r="H34" s="26"/>
       <c r="I34">
         <f t="shared" si="0"/>
         <v>10000</v>
@@ -1943,36 +1961,36 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="A25:A29"/>
+    <mergeCell ref="B25:B29"/>
+    <mergeCell ref="D25:D29"/>
+    <mergeCell ref="F25:F29"/>
+    <mergeCell ref="H25:H29"/>
+    <mergeCell ref="A30:A34"/>
+    <mergeCell ref="B30:B34"/>
+    <mergeCell ref="D30:D34"/>
+    <mergeCell ref="F30:F34"/>
+    <mergeCell ref="H30:H34"/>
+    <mergeCell ref="A15:A19"/>
+    <mergeCell ref="B15:B19"/>
+    <mergeCell ref="D15:D19"/>
+    <mergeCell ref="F15:F19"/>
+    <mergeCell ref="H15:H19"/>
+    <mergeCell ref="A20:A24"/>
+    <mergeCell ref="B20:B24"/>
+    <mergeCell ref="D20:D24"/>
+    <mergeCell ref="F20:F24"/>
+    <mergeCell ref="H20:H24"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="G8:H8"/>
     <mergeCell ref="A10:A14"/>
     <mergeCell ref="B10:B14"/>
     <mergeCell ref="D10:D14"/>
     <mergeCell ref="F10:F14"/>
     <mergeCell ref="H10:H14"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="A20:A24"/>
-    <mergeCell ref="B20:B24"/>
-    <mergeCell ref="D20:D24"/>
-    <mergeCell ref="F20:F24"/>
-    <mergeCell ref="H20:H24"/>
-    <mergeCell ref="A15:A19"/>
-    <mergeCell ref="B15:B19"/>
-    <mergeCell ref="D15:D19"/>
-    <mergeCell ref="F15:F19"/>
-    <mergeCell ref="H15:H19"/>
-    <mergeCell ref="A30:A34"/>
-    <mergeCell ref="B30:B34"/>
-    <mergeCell ref="D30:D34"/>
-    <mergeCell ref="F30:F34"/>
-    <mergeCell ref="H30:H34"/>
-    <mergeCell ref="A25:A29"/>
-    <mergeCell ref="B25:B29"/>
-    <mergeCell ref="D25:D29"/>
-    <mergeCell ref="F25:F29"/>
-    <mergeCell ref="H25:H29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
